--- a/biology/Médecine/VIPome/VIPome.xlsx
+++ b/biology/Médecine/VIPome/VIPome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le VIPome est une tumeur sécrétant du peptide vasoactif intestinal (en anglais VIP pour « vasoactive intestinal peptide »). La première description en a été faite en 1957[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le VIPome est une tumeur sécrétant du peptide vasoactif intestinal (en anglais VIP pour « vasoactive intestinal peptide »). La première description en a été faite en 1957.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une maladie rare dont l'incidence est de l'ordre d'un cas par million et par an[2]. La plupart sont de localisation pancréatique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une maladie rare dont l'incidence est de l'ordre d'un cas par million et par an. La plupart sont de localisation pancréatique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se manifeste par une diarrhée chronique.
 </t>
@@ -573,10 +589,12 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le taux sanguin de peptide vasoactif intestinal est augmenté ainsi que celui du polypeptide pancréatique et de la chromogranine A.
-La localisation de la tumeur peut être faite par tomographie par émission de positons[3].
+La localisation de la tumeur peut être faite par tomographie par émission de positons.
 </t>
         </is>
       </c>
